--- a/src/output/survey/4-analyzer/all-freq.xlsx
+++ b/src/output/survey/4-analyzer/all-freq.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G238"/>
+  <dimension ref="A1:G205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,164 +469,164 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>distribute database</t>
+          <t>property</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>tutorial</t>
+          <t>software</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>online bank</t>
+          <t>security</t>
         </is>
       </c>
       <c r="B4" t="n">
+        <v>145</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>5</v>
       </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>cryptography</t>
+          <t>distribute architecture</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>network</t>
+          <t>architecture</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>bibliography</t>
+          <t>e-government</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>internet</t>
+          <t>peer-to-peer architecture</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -644,14 +644,14 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>data mine</t>
+          <t>computer system organization</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -660,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -669,114 +669,114 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>contract</t>
+          <t>apply compute</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>computational trust</t>
+          <t>information system</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>public ledger</t>
+          <t>privacy</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>compute</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="G13" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>business innovation</t>
+          <t>general</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -788,45 +788,45 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>decentralization</t>
+          <t>overview</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>transaction</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -838,98 +838,98 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ethereum</t>
+          <t>survey</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>security</t>
+          <t>document type</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>167</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>65</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>consensus</t>
+          <t>network property</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>e-commerce</t>
+          <t>embed system</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -938,63 +938,63 @@
         <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>digital currency</t>
+          <t>network</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>cryptocurrency</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>interaction</t>
+          <t>web application</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1013,88 +1013,88 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>requirement</t>
+          <t>smart contract</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F24" t="n">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>proof-of-work</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F25" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>privacy</t>
+          <t>cryptocurrency</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
       </c>
       <c r="F26" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>byzantine fault tolerance</t>
+          <t>quantum compute</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -1119,107 +1119,107 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>microgrids</t>
+          <t>big data</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>renewable energy source</t>
+          <t>edge compute</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>organization</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="B30" t="n">
+        <v>14</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>9</v>
+      </c>
+      <c r="G30" t="n">
         <v>4</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>fault tolerance</t>
+          <t>industrial iot</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>law</t>
+          <t>smart factory</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1238,54 +1238,54 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>fault tolerant system</t>
+          <t>artificial intelligence</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>server</t>
+          <t>framework</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1294,73 +1294,73 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>medical service</t>
+          <t>distribute consensus</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>fault tolerance</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>smart home</t>
+          <t>formal specification</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1369,42 +1369,42 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>monitor</t>
+          <t>game theory</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>bank</t>
+          <t>interoperability</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -1413,17 +1413,17 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>data structure</t>
+          <t>ards</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1460,82 +1460,82 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>database</t>
+          <t>consensus</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>p2p network</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>om oracle</t>
+          <t>mine</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1544,17 +1544,17 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>transparency</t>
+          <t>incentive mechanism</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
@@ -1563,92 +1563,92 @@
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>data share</t>
+          <t>cryptography</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>business model</t>
+          <t>robotics</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>disintegration</t>
+          <t>decentralization</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>software</t>
+          <t>healthcare</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>robot</t>
+          <t>analytics</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1694,61 +1694,61 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>trust</t>
         </is>
       </c>
       <c r="B51" t="n">
+        <v>12</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
         <v>4</v>
       </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>2</v>
-      </c>
       <c r="F51" t="n">
         <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>open research</t>
+          <t>supply chain</t>
         </is>
       </c>
       <c r="B52" t="n">
+        <v>20</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
         <v>4</v>
       </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3</v>
-      </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>IoT</t>
+          <t>data management</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1757,23 +1757,23 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>ecosystem</t>
+          <t>traceability</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -1794,11 +1794,11 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>simulation</t>
+          <t>iot</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -1819,11 +1819,11 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>open-source software</t>
+          <t>education</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1832,23 +1832,23 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>software engineer</t>
+          <t>dpos</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1857,23 +1857,23 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>software propagation</t>
+          <t>machine learning</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1882,19 +1882,19 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>vii</t>
+          <t>software define network</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1907,19 +1907,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>autonomous system</t>
+          <t>5g network</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1932,10 +1932,10 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -1944,7 +1944,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>node - plant part</t>
+          <t>5g internet of thing</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1957,23 +1957,23 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>protocol documentation</t>
+          <t>5g service</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -1982,23 +1982,23 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>computation</t>
+          <t>hyperledger fabric</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2007,23 +2007,23 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
         <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>edge compute</t>
+          <t>distribute compute</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2032,48 +2032,48 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>taxonomy</t>
+          <t>ethereum</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F65" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>overhead</t>
+          <t>smart city</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2082,23 +2082,23 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>communication protocol</t>
+          <t>use case</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2110,16 +2110,16 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>internet backbone</t>
+          <t>energy trade</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>immutable object</t>
+          <t>smart grid</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -2160,16 +2160,16 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>system design</t>
+          <t>microgrid</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2194,11 +2194,11 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>game theory</t>
+          <t>internet of energy</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2207,23 +2207,23 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>traceability</t>
+          <t>energy internet</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2232,23 +2232,23 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>interoperability</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2257,23 +2257,23 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F73" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="G73" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>high- and low-level</t>
+          <t>game</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2282,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
         <v>2</v>
@@ -2294,7 +2294,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>antivirus software</t>
+          <t>governance</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -2304,22 +2304,22 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>numerous</t>
+          <t>nash equilibrium</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -2332,23 +2332,23 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>zero-knowledge proof</t>
+          <t>requirement</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
         <v>2</v>
@@ -2369,11 +2369,11 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>convergence</t>
+          <t>ecosystem</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2382,23 +2382,23 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>performance</t>
+          <t>empirical study</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2407,23 +2407,23 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>e-government</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2435,20 +2435,20 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>architecture</t>
+          <t>dapp</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2457,48 +2457,48 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>apply compute</t>
+          <t>database</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>computer system organization</t>
+          <t>challenge</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2510,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -2519,23 +2519,23 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>information system</t>
+          <t>distribute database</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -2544,23 +2544,23 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>distribute architecture</t>
+          <t>online bank</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -2569,39 +2569,39 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>peer-to-peer architecture</t>
+          <t>tutorial</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>3</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>artificial intelligence</t>
+          <t>data mine</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -2613,20 +2613,20 @@
         <v>5</v>
       </c>
       <c r="G87" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>finance</t>
+          <t>internet</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -2644,32 +2644,32 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>biological system model</t>
+          <t>bibliography</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>computational model</t>
+          <t>microgrids</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
         <v>1</v>
@@ -2694,57 +2694,57 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>supply chain</t>
+          <t>renewable energy source</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>digital forensics</t>
+          <t>organization</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>law</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -2754,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -2769,23 +2769,23 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>government</t>
+          <t>fault tolerant system</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -2794,23 +2794,23 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>computer science</t>
+          <t>server</t>
         </is>
       </c>
       <c r="B95" t="n">
+        <v>8</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3</v>
+      </c>
+      <c r="F95" t="n">
         <v>4</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" t="n">
-        <v>1</v>
-      </c>
-      <c r="F95" t="n">
-        <v>3</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -2819,32 +2819,32 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>systematics</t>
+          <t>medical service</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
         <v>5</v>
       </c>
       <c r="G96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>library</t>
+          <t>monitor</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
         <v>1</v>
@@ -2863,48 +2863,48 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>sensor</t>
+          <t>smart home</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>bank</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
         <v>1</v>
@@ -2913,13 +2913,13 @@
         <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>economics</t>
+          <t>data structure</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -2929,10 +2929,10 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
         <v>2</v>
@@ -2944,11 +2944,11 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>technological innovation</t>
+          <t>finance</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -2960,20 +2960,20 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>digital signature</t>
+          <t>computational model</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -2985,7 +2985,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -2994,11 +2994,11 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>big data</t>
+          <t>biological system model</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3010,20 +3010,20 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>compute</t>
+          <t>digital forensics</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3032,23 +3032,23 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F104" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>computer architecture</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3057,23 +3057,23 @@
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F105" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>conference</t>
+          <t>government</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -3094,11 +3094,11 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>fabric</t>
+          <t>computer science</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -3119,11 +3119,11 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>market research</t>
+          <t>library</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3132,10 +3132,10 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -3144,11 +3144,11 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>ip network</t>
+          <t>systematics</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3160,20 +3160,20 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>information technology</t>
+          <t>sensor</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3185,7 +3185,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -3194,11 +3194,11 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>technological innovation</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -3219,11 +3219,11 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>proposal</t>
+          <t>economics</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -3244,11 +3244,11 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>trust</t>
+          <t>company</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3257,48 +3257,48 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>distribute compute</t>
+          <t>digital signature</t>
         </is>
       </c>
       <c r="B114" t="n">
+        <v>6</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1</v>
+      </c>
+      <c r="F114" t="n">
         <v>5</v>
       </c>
-      <c r="C114" t="n">
-        <v>0</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" t="n">
-        <v>1</v>
-      </c>
-      <c r="F114" t="n">
-        <v>3</v>
-      </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>industrial internet of thing</t>
+          <t>computer architecture</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3310,16 +3310,16 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>food supply chain</t>
+          <t>conference</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -3332,23 +3332,23 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>smart city</t>
+          <t>market research</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3360,20 +3360,20 @@
         <v>2</v>
       </c>
       <c r="F117" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G117" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>healthcare</t>
+          <t>fabric</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3382,23 +3382,23 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>project management</t>
+          <t>information technology</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -3419,11 +3419,11 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>vote-based consensus</t>
+          <t>ip network</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3435,20 +3435,20 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>initial coin offer</t>
+          <t>proposal</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3457,23 +3457,23 @@
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>smart grid</t>
+          <t>history</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3488,17 +3488,17 @@
         <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>energy sector</t>
+          <t>control system</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3507,19 +3507,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>o33</t>
+          <t>structure</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -3532,23 +3532,23 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>distribute system</t>
+          <t>type</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -3569,7 +3569,7 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>5g</t>
+          <t>ledger</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -3582,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -3594,11 +3594,11 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>emerge technology</t>
+          <t>reliability</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3607,23 +3607,23 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
         <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>ico</t>
+          <t>taxonomy</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3632,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>multi-agent system</t>
+          <t>task analysis</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -3657,10 +3657,10 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -3669,7 +3669,7 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>tourism</t>
+          <t>stakeholder</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -3682,19 +3682,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>business</t>
+          <t>delay</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -3707,19 +3707,19 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
         <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>clinical trial</t>
+          <t>ehr</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -3732,23 +3732,23 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
         <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>logistics</t>
+          <t>fpga</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3757,19 +3757,19 @@
         <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
         <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>matrix-geometric solution</t>
+          <t>energy</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -3782,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
@@ -3794,11 +3794,11 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>construction industry</t>
+          <t>energy exchange</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
         <v>1</v>
@@ -3819,7 +3819,7 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>build environment</t>
+          <t>energy sector</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -3844,7 +3844,7 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>socio-technical system</t>
+          <t>cloud storage</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -3857,23 +3857,23 @@
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>business process</t>
+          <t>sharding</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -3885,20 +3885,20 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>embed system</t>
+          <t>hyperledger</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -3910,20 +3910,20 @@
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>categorization</t>
+          <t>anonymity</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -3932,26 +3932,26 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>trust third party</t>
+          <t>transaction</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>2</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
@@ -3969,7 +3969,7 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>quality of service</t>
+          <t>scoping review</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -3994,11 +3994,11 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>program paradigm</t>
+          <t>renewable energy</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
@@ -4019,11 +4019,11 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>grid compute</t>
+          <t>construction industry</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" t="n">
         <v>1</v>
@@ -4044,11 +4044,11 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>centralize compute</t>
+          <t>socio-technical system</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4057,19 +4057,19 @@
         <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>holism</t>
+          <t>compliance</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -4094,11 +4094,11 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>correctness</t>
+          <t>build environment</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4107,19 +4107,19 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147" t="n">
         <v>1</v>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>solidity</t>
+          <t>decentralize application</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -4135,16 +4135,16 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>autonomous robot</t>
+          <t>merkle tree</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -4160,16 +4160,16 @@
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>behavior</t>
+          <t>benefit</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>flaw hypothesis methodology</t>
+          <t>ethic</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -4210,16 +4210,16 @@
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>speculative execution</t>
+          <t>fintech</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -4235,16 +4235,16 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>emergence</t>
+          <t>innovation</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -4260,45 +4260,45 @@
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>solution</t>
+          <t>transparency</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>algorithm</t>
+          <t>industrial internet of thing</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4307,10 +4307,10 @@
         <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -4319,7 +4319,7 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>mathematical optimization</t>
+          <t>reputation system</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -4335,16 +4335,16 @@
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>quantum compute</t>
+          <t>e-health</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -4369,11 +4369,11 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>machine learning</t>
+          <t>vanet</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4385,20 +4385,20 @@
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G158" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>proof-of-stake</t>
+          <t>5g</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4407,26 +4407,26 @@
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>floor</t>
+          <t>business innovation</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>2</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -4444,14 +4444,14 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>ards characteristic</t>
+          <t>computational trust</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>2</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -4469,14 +4469,14 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>ceiling function</t>
+          <t>public ledger</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>2</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
@@ -4494,111 +4494,111 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>benefit</t>
+          <t>om oracle</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>anonymity</t>
+          <t>r</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>mine</t>
+          <t>data share</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>energy</t>
+          <t>business model</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>scoping review</t>
+          <t>food supply chain</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4607,10 +4607,10 @@
         <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -4619,11 +4619,11 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>digital economy</t>
+          <t>project management</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4632,23 +4632,23 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>legislation</t>
+          <t>initial coin offer</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4657,10 +4657,10 @@
         <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -4669,11 +4669,11 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>control system</t>
+          <t>o33</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4682,10 +4682,10 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -4694,36 +4694,36 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>distribute system</t>
         </is>
       </c>
       <c r="B171" t="n">
+        <v>6</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1</v>
+      </c>
+      <c r="F171" t="n">
         <v>4</v>
       </c>
-      <c r="C171" t="n">
-        <v>0</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0</v>
-      </c>
-      <c r="F171" t="n">
-        <v>1</v>
-      </c>
       <c r="G171" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>document type</t>
+          <t>emerge technology</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4732,23 +4732,23 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172" t="n">
         <v>1</v>
       </c>
       <c r="G172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>overview</t>
+          <t>ico</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4757,23 +4757,23 @@
         <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
         <v>1</v>
       </c>
       <c r="G173" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>multi-agent system</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4782,23 +4782,23 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" t="n">
         <v>1</v>
       </c>
       <c r="G174" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>survey</t>
+          <t>tourism</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -4807,19 +4807,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>security service</t>
+          <t>business</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -4832,19 +4832,19 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
         <v>1</v>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>network property</t>
+          <t>clinical trial</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -4857,23 +4857,23 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
         <v>1</v>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>structure</t>
+          <t>logistics</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G178" t="n">
         <v>0</v>
@@ -4894,7 +4894,7 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>matrix-geometric solution</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -4907,23 +4907,23 @@
         <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179" t="n">
         <v>1</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>digital economy</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -4935,16 +4935,16 @@
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>ledger</t>
+          <t>legislation</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -4969,11 +4969,11 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>reliability</t>
+          <t>decentralize system</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -4988,17 +4988,17 @@
         <v>1</v>
       </c>
       <c r="G182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>task analysis</t>
+          <t>electronic health record</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5010,20 +5010,20 @@
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>stakeholder</t>
+          <t>access control</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5038,17 +5038,17 @@
         <v>2</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>delay</t>
+          <t>peer-to-peer network</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5057,19 +5057,19 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185" t="n">
         <v>1</v>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>ehr</t>
+          <t>coordination</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -5094,7 +5094,7 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>fpga</t>
+          <t>energy consumption</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -5119,11 +5119,11 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>energy exchange</t>
+          <t>sustainability</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5138,17 +5138,17 @@
         <v>1</v>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>renewable energy</t>
+          <t>hash</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5163,17 +5163,17 @@
         <v>2</v>
       </c>
       <c r="G189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>compliance</t>
+          <t>deep learning</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5185,16 +5185,16 @@
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>use case</t>
+          <t>electronic medical record</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -5219,11 +5219,11 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>data management</t>
+          <t>state machine replication</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5235,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -5244,7 +5244,7 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>decentralize system</t>
+          <t>decentralize</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -5269,11 +5269,11 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>electronic health record</t>
+          <t>pharmaceutical supply chain</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5285,16 +5285,16 @@
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>fintech</t>
+          <t>decentralize network</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -5319,11 +5319,11 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>access control</t>
+          <t>research</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -5344,11 +5344,11 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>peer-to-peer network</t>
+          <t>scientometrics</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5357,23 +5357,23 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197" t="n">
         <v>1</v>
       </c>
       <c r="G197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>coordination</t>
+          <t>pbft</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5388,13 +5388,13 @@
         <v>1</v>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>energy consumption</t>
+          <t>citespace</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -5419,11 +5419,11 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>sustainability</t>
+          <t>biot</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5438,17 +5438,17 @@
         <v>1</v>
       </c>
       <c r="G200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>hash</t>
+          <t>e-commerce</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5460,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -5469,11 +5469,11 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>deep learning</t>
+          <t>software engineer</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5485,20 +5485,20 @@
         <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>hyperledger</t>
+          <t>poa</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5510,16 +5510,16 @@
         <v>0</v>
       </c>
       <c r="F203" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G203" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>electronic medical record</t>
+          <t>disruptive technology</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -5535,20 +5535,20 @@
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>hyperledger fabric</t>
+          <t>systematic map study</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5560,834 +5560,9 @@
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="inlineStr">
-        <is>
-          <t>industrial iot</t>
-        </is>
-      </c>
-      <c r="B206" t="n">
-        <v>4</v>
-      </c>
-      <c r="C206" t="n">
-        <v>0</v>
-      </c>
-      <c r="D206" t="n">
-        <v>0</v>
-      </c>
-      <c r="E206" t="n">
-        <v>0</v>
-      </c>
-      <c r="F206" t="n">
-        <v>2</v>
-      </c>
-      <c r="G206" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="inlineStr">
-        <is>
-          <t>state machine replication</t>
-        </is>
-      </c>
-      <c r="B207" t="n">
-        <v>2</v>
-      </c>
-      <c r="C207" t="n">
-        <v>0</v>
-      </c>
-      <c r="D207" t="n">
-        <v>0</v>
-      </c>
-      <c r="E207" t="n">
-        <v>0</v>
-      </c>
-      <c r="F207" t="n">
-        <v>1</v>
-      </c>
-      <c r="G207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="inlineStr">
-        <is>
-          <t>e-health</t>
-        </is>
-      </c>
-      <c r="B208" t="n">
-        <v>4</v>
-      </c>
-      <c r="C208" t="n">
-        <v>0</v>
-      </c>
-      <c r="D208" t="n">
-        <v>0</v>
-      </c>
-      <c r="E208" t="n">
-        <v>0</v>
-      </c>
-      <c r="F208" t="n">
-        <v>2</v>
-      </c>
-      <c r="G208" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="inlineStr">
-        <is>
-          <t>pharmaceutical supply chain</t>
-        </is>
-      </c>
-      <c r="B209" t="n">
-        <v>2</v>
-      </c>
-      <c r="C209" t="n">
-        <v>0</v>
-      </c>
-      <c r="D209" t="n">
-        <v>0</v>
-      </c>
-      <c r="E209" t="n">
-        <v>0</v>
-      </c>
-      <c r="F209" t="n">
-        <v>1</v>
-      </c>
-      <c r="G209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="inlineStr">
-        <is>
-          <t>decentralize</t>
-        </is>
-      </c>
-      <c r="B210" t="n">
-        <v>2</v>
-      </c>
-      <c r="C210" t="n">
-        <v>0</v>
-      </c>
-      <c r="D210" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" t="n">
-        <v>0</v>
-      </c>
-      <c r="F210" t="n">
-        <v>1</v>
-      </c>
-      <c r="G210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="inlineStr">
-        <is>
-          <t>decentralize network</t>
-        </is>
-      </c>
-      <c r="B211" t="n">
-        <v>2</v>
-      </c>
-      <c r="C211" t="n">
-        <v>0</v>
-      </c>
-      <c r="D211" t="n">
-        <v>0</v>
-      </c>
-      <c r="E211" t="n">
-        <v>0</v>
-      </c>
-      <c r="F211" t="n">
-        <v>1</v>
-      </c>
-      <c r="G211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="inlineStr">
-        <is>
-          <t>scientometrics</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
-        <v>2</v>
-      </c>
-      <c r="C212" t="n">
-        <v>0</v>
-      </c>
-      <c r="D212" t="n">
-        <v>0</v>
-      </c>
-      <c r="E212" t="n">
-        <v>0</v>
-      </c>
-      <c r="F212" t="n">
-        <v>1</v>
-      </c>
-      <c r="G212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="inlineStr">
-        <is>
-          <t>research</t>
-        </is>
-      </c>
-      <c r="B213" t="n">
-        <v>3</v>
-      </c>
-      <c r="C213" t="n">
-        <v>0</v>
-      </c>
-      <c r="D213" t="n">
-        <v>0</v>
-      </c>
-      <c r="E213" t="n">
-        <v>0</v>
-      </c>
-      <c r="F213" t="n">
-        <v>1</v>
-      </c>
-      <c r="G213" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="inlineStr">
-        <is>
-          <t>pbft</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
-        <v>3</v>
-      </c>
-      <c r="C214" t="n">
-        <v>0</v>
-      </c>
-      <c r="D214" t="n">
-        <v>0</v>
-      </c>
-      <c r="E214" t="n">
-        <v>0</v>
-      </c>
-      <c r="F214" t="n">
-        <v>1</v>
-      </c>
-      <c r="G214" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="inlineStr">
-        <is>
-          <t>dpos</t>
-        </is>
-      </c>
-      <c r="B215" t="n">
-        <v>3</v>
-      </c>
-      <c r="C215" t="n">
-        <v>0</v>
-      </c>
-      <c r="D215" t="n">
-        <v>0</v>
-      </c>
-      <c r="E215" t="n">
-        <v>0</v>
-      </c>
-      <c r="F215" t="n">
-        <v>2</v>
-      </c>
-      <c r="G215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="inlineStr">
-        <is>
-          <t>citespace</t>
-        </is>
-      </c>
-      <c r="B216" t="n">
-        <v>2</v>
-      </c>
-      <c r="C216" t="n">
-        <v>0</v>
-      </c>
-      <c r="D216" t="n">
-        <v>0</v>
-      </c>
-      <c r="E216" t="n">
-        <v>0</v>
-      </c>
-      <c r="F216" t="n">
-        <v>1</v>
-      </c>
-      <c r="G216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="inlineStr">
-        <is>
-          <t>biot</t>
-        </is>
-      </c>
-      <c r="B217" t="n">
-        <v>2</v>
-      </c>
-      <c r="C217" t="n">
-        <v>0</v>
-      </c>
-      <c r="D217" t="n">
-        <v>0</v>
-      </c>
-      <c r="E217" t="n">
-        <v>0</v>
-      </c>
-      <c r="F217" t="n">
-        <v>1</v>
-      </c>
-      <c r="G217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="inlineStr">
-        <is>
-          <t>challenge</t>
-        </is>
-      </c>
-      <c r="B218" t="n">
-        <v>2</v>
-      </c>
-      <c r="C218" t="n">
-        <v>0</v>
-      </c>
-      <c r="D218" t="n">
-        <v>0</v>
-      </c>
-      <c r="E218" t="n">
-        <v>0</v>
-      </c>
-      <c r="F218" t="n">
-        <v>1</v>
-      </c>
-      <c r="G218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="inlineStr">
-        <is>
-          <t>poa</t>
-        </is>
-      </c>
-      <c r="B219" t="n">
-        <v>3</v>
-      </c>
-      <c r="C219" t="n">
-        <v>0</v>
-      </c>
-      <c r="D219" t="n">
-        <v>0</v>
-      </c>
-      <c r="E219" t="n">
-        <v>0</v>
-      </c>
-      <c r="F219" t="n">
-        <v>1</v>
-      </c>
-      <c r="G219" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="inlineStr">
-        <is>
-          <t>distribute consensus</t>
-        </is>
-      </c>
-      <c r="B220" t="n">
-        <v>2</v>
-      </c>
-      <c r="C220" t="n">
-        <v>0</v>
-      </c>
-      <c r="D220" t="n">
-        <v>0</v>
-      </c>
-      <c r="E220" t="n">
-        <v>0</v>
-      </c>
-      <c r="F220" t="n">
-        <v>1</v>
-      </c>
-      <c r="G220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="inlineStr">
-        <is>
-          <t>formal specification</t>
-        </is>
-      </c>
-      <c r="B221" t="n">
-        <v>2</v>
-      </c>
-      <c r="C221" t="n">
-        <v>0</v>
-      </c>
-      <c r="D221" t="n">
-        <v>0</v>
-      </c>
-      <c r="E221" t="n">
-        <v>0</v>
-      </c>
-      <c r="F221" t="n">
-        <v>1</v>
-      </c>
-      <c r="G221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="inlineStr">
-        <is>
-          <t>web application</t>
-        </is>
-      </c>
-      <c r="B222" t="n">
-        <v>2</v>
-      </c>
-      <c r="C222" t="n">
-        <v>0</v>
-      </c>
-      <c r="D222" t="n">
-        <v>0</v>
-      </c>
-      <c r="E222" t="n">
-        <v>0</v>
-      </c>
-      <c r="F222" t="n">
-        <v>1</v>
-      </c>
-      <c r="G222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="inlineStr">
-        <is>
-          <t>vanet</t>
-        </is>
-      </c>
-      <c r="B223" t="n">
-        <v>2</v>
-      </c>
-      <c r="C223" t="n">
-        <v>0</v>
-      </c>
-      <c r="D223" t="n">
-        <v>0</v>
-      </c>
-      <c r="E223" t="n">
-        <v>0</v>
-      </c>
-      <c r="F223" t="n">
-        <v>1</v>
-      </c>
-      <c r="G223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="B224" t="n">
-        <v>3</v>
-      </c>
-      <c r="C224" t="n">
-        <v>0</v>
-      </c>
-      <c r="D224" t="n">
-        <v>0</v>
-      </c>
-      <c r="E224" t="n">
-        <v>0</v>
-      </c>
-      <c r="F224" t="n">
-        <v>0</v>
-      </c>
-      <c r="G224" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="inlineStr">
-        <is>
-          <t>money</t>
-        </is>
-      </c>
-      <c r="B225" t="n">
-        <v>2</v>
-      </c>
-      <c r="C225" t="n">
-        <v>0</v>
-      </c>
-      <c r="D225" t="n">
-        <v>0</v>
-      </c>
-      <c r="E225" t="n">
-        <v>1</v>
-      </c>
-      <c r="F225" t="n">
-        <v>0</v>
-      </c>
-      <c r="G225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="inlineStr">
-        <is>
-          <t>fog compute</t>
-        </is>
-      </c>
-      <c r="B226" t="n">
-        <v>2</v>
-      </c>
-      <c r="C226" t="n">
-        <v>0</v>
-      </c>
-      <c r="D226" t="n">
-        <v>0</v>
-      </c>
-      <c r="E226" t="n">
-        <v>0</v>
-      </c>
-      <c r="F226" t="n">
-        <v>0</v>
-      </c>
-      <c r="G226" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="inlineStr">
-        <is>
-          <t>cap theorem</t>
-        </is>
-      </c>
-      <c r="B227" t="n">
-        <v>2</v>
-      </c>
-      <c r="C227" t="n">
-        <v>0</v>
-      </c>
-      <c r="D227" t="n">
-        <v>0</v>
-      </c>
-      <c r="E227" t="n">
-        <v>0</v>
-      </c>
-      <c r="F227" t="n">
-        <v>0</v>
-      </c>
-      <c r="G227" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="inlineStr">
-        <is>
-          <t>cyberspace</t>
-        </is>
-      </c>
-      <c r="B228" t="n">
-        <v>2</v>
-      </c>
-      <c r="C228" t="n">
-        <v>0</v>
-      </c>
-      <c r="D228" t="n">
-        <v>0</v>
-      </c>
-      <c r="E228" t="n">
-        <v>0</v>
-      </c>
-      <c r="F228" t="n">
-        <v>0</v>
-      </c>
-      <c r="G228" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="inlineStr">
-        <is>
-          <t>decentralize application</t>
-        </is>
-      </c>
-      <c r="B229" t="n">
-        <v>2</v>
-      </c>
-      <c r="C229" t="n">
-        <v>0</v>
-      </c>
-      <c r="D229" t="n">
-        <v>0</v>
-      </c>
-      <c r="E229" t="n">
-        <v>0</v>
-      </c>
-      <c r="F229" t="n">
-        <v>0</v>
-      </c>
-      <c r="G229" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="inlineStr">
-        <is>
-          <t>merkle tree</t>
-        </is>
-      </c>
-      <c r="B230" t="n">
-        <v>2</v>
-      </c>
-      <c r="C230" t="n">
-        <v>0</v>
-      </c>
-      <c r="D230" t="n">
-        <v>0</v>
-      </c>
-      <c r="E230" t="n">
-        <v>0</v>
-      </c>
-      <c r="F230" t="n">
-        <v>0</v>
-      </c>
-      <c r="G230" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="inlineStr">
-        <is>
-          <t>nash equilibrium</t>
-        </is>
-      </c>
-      <c r="B231" t="n">
-        <v>2</v>
-      </c>
-      <c r="C231" t="n">
-        <v>0</v>
-      </c>
-      <c r="D231" t="n">
-        <v>0</v>
-      </c>
-      <c r="E231" t="n">
-        <v>0</v>
-      </c>
-      <c r="F231" t="n">
-        <v>0</v>
-      </c>
-      <c r="G231" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="inlineStr">
-        <is>
-          <t>cloud storage</t>
-        </is>
-      </c>
-      <c r="B232" t="n">
-        <v>2</v>
-      </c>
-      <c r="C232" t="n">
-        <v>0</v>
-      </c>
-      <c r="D232" t="n">
-        <v>0</v>
-      </c>
-      <c r="E232" t="n">
-        <v>0</v>
-      </c>
-      <c r="F232" t="n">
-        <v>0</v>
-      </c>
-      <c r="G232" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="inlineStr">
-        <is>
-          <t>sharding</t>
-        </is>
-      </c>
-      <c r="B233" t="n">
-        <v>2</v>
-      </c>
-      <c r="C233" t="n">
-        <v>0</v>
-      </c>
-      <c r="D233" t="n">
-        <v>0</v>
-      </c>
-      <c r="E233" t="n">
-        <v>0</v>
-      </c>
-      <c r="F233" t="n">
-        <v>0</v>
-      </c>
-      <c r="G233" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="inlineStr">
-        <is>
-          <t>ethic</t>
-        </is>
-      </c>
-      <c r="B234" t="n">
-        <v>2</v>
-      </c>
-      <c r="C234" t="n">
-        <v>0</v>
-      </c>
-      <c r="D234" t="n">
-        <v>0</v>
-      </c>
-      <c r="E234" t="n">
-        <v>0</v>
-      </c>
-      <c r="F234" t="n">
-        <v>0</v>
-      </c>
-      <c r="G234" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="inlineStr">
-        <is>
-          <t>innovation</t>
-        </is>
-      </c>
-      <c r="B235" t="n">
-        <v>2</v>
-      </c>
-      <c r="C235" t="n">
-        <v>0</v>
-      </c>
-      <c r="D235" t="n">
-        <v>0</v>
-      </c>
-      <c r="E235" t="n">
-        <v>0</v>
-      </c>
-      <c r="F235" t="n">
-        <v>0</v>
-      </c>
-      <c r="G235" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="inlineStr">
-        <is>
-          <t>reputation system</t>
-        </is>
-      </c>
-      <c r="B236" t="n">
-        <v>2</v>
-      </c>
-      <c r="C236" t="n">
-        <v>0</v>
-      </c>
-      <c r="D236" t="n">
-        <v>0</v>
-      </c>
-      <c r="E236" t="n">
-        <v>0</v>
-      </c>
-      <c r="F236" t="n">
-        <v>0</v>
-      </c>
-      <c r="G236" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="inlineStr">
-        <is>
-          <t>disruptive technology</t>
-        </is>
-      </c>
-      <c r="B237" t="n">
-        <v>2</v>
-      </c>
-      <c r="C237" t="n">
-        <v>0</v>
-      </c>
-      <c r="D237" t="n">
-        <v>0</v>
-      </c>
-      <c r="E237" t="n">
-        <v>0</v>
-      </c>
-      <c r="F237" t="n">
-        <v>0</v>
-      </c>
-      <c r="G237" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="inlineStr">
-        <is>
-          <t>systematic map study</t>
-        </is>
-      </c>
-      <c r="B238" t="n">
-        <v>2</v>
-      </c>
-      <c r="C238" t="n">
-        <v>0</v>
-      </c>
-      <c r="D238" t="n">
-        <v>0</v>
-      </c>
-      <c r="E238" t="n">
-        <v>0</v>
-      </c>
-      <c r="F238" t="n">
-        <v>0</v>
-      </c>
-      <c r="G238" t="n">
         <v>2</v>
       </c>
     </row>
